--- a/deuChatbot/research_result/results/bleu_score/bleu_version_1(3000_200).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_1(3000_200).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6089,61 +6089,3461 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. 모집단위:
+   - 시각디자인
+   - 산업디자인
+   - 공예디자인
+2. 종목별 배점(비율):
+   - 기초디자인, 사고의 전환: 700점 (70%)
+3. 준비물:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+4. 실기주제:
+   - 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+   - 예시: 잠자리와 저울, 콜라병과 계절 등
+5. 화지크기:
+   - 켄트지3절 (A4 크기)
+6. 시간:
+   - 5시간
+이 시험은 창의적 사고력과 표현 능력을 평가하기 위해 기초디자인과 사고의 전환 두 가지 주제를 통해 다양한 주제에 대한 디자인 작업을 수행하게 됩니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.3482945275501976</v>
+        <v>0.3676950275591859</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1이며, 각 종목별 배점 비율은 다음과 같습니다:
+- 기초디자인, 사고의 전환: 700점 (70%)
+### 준비물
+- 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+### 실기주제
+- 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다.
+  - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+### 화지크기
+- 켄트지 3절
+### 시간
+- 5시간
+이 정보를 바탕으로 준비하면 좋을 것 같습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.2143550611114037</v>
+        <v>0.4485137329002786</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+1. 배드민턴(남)
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴대회
+   - 전국학부배드민턴대회
+   - 기타 대회들
+2. 태권도(남)
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한태권도협회장기전국종별배드민턴대회
+   - 전국학부배드민턴대회
+   - 기타 대회들
+위에서 배드민턴과 태권도의 인정대회가 나와 있습니다. 경기지도학과에서는 주로 배드민턴과 태권도 관련 대회들이 인정대회에 포함됩니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.3201782752651829</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용될 수 있는 주제들은 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 주제A와 주제B 각각에서 1개씩을 선택하여 연결된 주제를 만들게 됩니다. 예시로는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.8322332516273522</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>네, 동의대학교 학생부교과 전형에서는 출결이 반영됩니다. 
+출결 관련 내용은 다음과 같이 나와 있습니다:
+- [표 제목 : 기타사항 나군 실기/실적(경기실적우수자전형) 학생부 출결상황 반영방법]
+- 결석일수 / 반영점수 표에서:
+  - 0~2일: 120점
+  - 3~6일: 90점 
+  - 7~12일: 60점
+  - 13~20일: 30점
+  - 21일이상: 0점
+- 추가로 "미인정, 사고, 무단의 지각/조퇴/결과 3회는 결석 1회로 간주"라고 되어 있어, 이 경우에도 출결 점수가 반영됩니다.
+따라서 학생부교과 전형에서 출결 상황이 출결일수에 따라 다르게 점수를 받을 수 있으며, 무단 결석이 많으면 최대 120점까지의 점수 차이가 발생할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>2.916115734081867e-05</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다.
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.5214988276737441</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 / 
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 얻었습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.2697452547829359</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>22명입니다.
+의료보건생활대학 간호학과는 나군 일반학생전형으로 모집하며, 해당 모집단위의 모집인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.3854080791513307</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+1등급: 139점  
+2등급: 131점  
+3등급: 123점  
+4등급: 115점  
+5등급: 107점  
+6등급: 99점  
+7등급: 91점  
+8등급: 83점  
+9등급: 75점  
+이 점수들은 각 등급별로 대략적인 평균 점수를 나타내며, 실제 수능 성적 발표 시에는 정확한 점수가 공개됩니다.</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.6333282736658629</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>依据提供的信息，艺术高中毕业的学生不能申请“나군 학생부교과(농어촌학생전형)”（农·渔村学生类型）。
+具体来说，在“고교유형별 지원자격”表格中提到：
+- 特殊目的高中 { 科学高中, 国际高中, 外语高中 / 艺术高中, 体育高中 / 技工高中 } 中的艺术高中，不在农·渔村学生类型的支持范围内。
+因此，艺术高中的毕业生不符合该类型的申请资格。</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.1587028250915138</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 여자 제자리 멀리뛰기 기록은 218cm이며, 이 기록에 대한 배점은 275점입니다.
+참조되는 표는 다음과 같습니다:
+레저스포츠학과 기록별 배점표
+```
+4 / { 268～271 /  218~221 /  275 / } / { 14.80~14.99 /  15.70~15.89 /  275 / } /
+```
+여기서 4등급의 여자 제자리 멀리뛰기는 218cm에서 221cm 사이이며, 이 범위에 속하는 기록인 218cm는 배점이 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.05979206534894992</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>12%입니다.
+이 정보는 "나군 실기/실적(경기실적우수자전형) 모집단위 및 모집인원" 표와 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 얻었습니다. 경기지도학과의 경우, 전형요소 반영 비율에 따르면:
+- 학생부교과: 18%
+- 출결: 12%
+- 서류(경기실적): 70%
+따라서 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0005269593765316722</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+가군 수능(일반학생전형) 모집단위 및 모집인원 표에서 다음과 같이 확인할 수 있습니다:
+```
+의료보건생활대학 / 자연과학 / 물리치료학과 / 4 /
+```
+따라서 동의대학교 2024학년도 가군에서는 물리치료학과에 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.04862886235139553</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 17일(수)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **모집단위**: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- **종목**: 기초실기 (700점 중 70%)
+- **주의사항**:
+  - 대기실 및 입실시간 안내는 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>5.842762317815581e-06</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보는 제공된 데이터에서 확인할 수 없습니다. 하지만, 관련된 정보를 통해 추론해볼 수 있습니다:
+1. 응용화학과는 다군 수능(일반학생전형) 모집단위에 포함되어 있습니다.
+2. 다군 수능(일반학생전형)의 전형요소 반영비율은 100% 수능입니다 (표 4-3 참조).
+3. 응용화학과는 "공과대학, ICT융합공과대학 모집단위"에 해당합니다.
+4. 공과대학, ICT융합공과대학 모집단위의 수능 반영영역 및 가산점은 다음과 같습니다:
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+5. 응용화학과는 수학(미적분 또는 기하)을 응시해야 하는 경우 수학 표준점수의 10% 가산점을 받습니다.
+따라서, 응용화학과의 수능 최저기준은 다음과 같을 것으로 추정됩니다:
+- 국어, 수학(미적분 또는 기하), 영어, 탐구 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수
+- 수학(미적분 또는 기하) 응시자의 경우, 수학 표준점수에 10% 가산점을 더함
+하지만 이는 추정이며, 공식적인 최저기준은 동의대학교 입학처에서 발표하는 것이 정확할 것입니다. 따라서 최종적인 최저기준을 확인하려면 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1.411247932741113e-19</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같은 것들이 있습니다:
+1. 경기지도학과 - 신설 (예체능 계열)
+2. 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) 
+3. 부동산자산경역학부 - 신설 (부동산투자학, 부동산개발경영학)
+4. 스마트호스피탈리티학과 - 신설
+5. 미래형자동차학과 - 신설
+위와 같이 2024년에 신설된 학과들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.4077455923710217</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가: 70%
+- 면접 평가: 30%
+이 정보는 [표 속성]에서 확인할 수 있으며, 해당 표는 "나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형) 전형요소 반영비율"에 대한 내용을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.127800752305956</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+관련 정보는 다음과 같습니다:
+- [표 제목] 수능 반영영역 및 가산점
+- [표 내용]
+  ```
+  한의예과 수학(미적분/기하) 응시자 / 국어(화법과작문 또는 언어와매체) 25% +수학 (미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25% / 가산점 없음 /
+  한의예과 수학(확률과통계) 응시자 / 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25% / 가산점 없음 /
+  ```
+- [표 추가내용]
+  ```
+  한의예과 수학(미적분/기하) 응시자 : 수학 취득 표준점수의 10% 가산점
+  ```
+따라서, 한의예과에서 수학(미적분 또는 기하)을 응시한 학생에게만 수능 가산점이 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.04473742111939068</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. 모든 모집단위는 수능 성적이 100% 반영됩니다.
+2. 실기/실적 위주의 모집단위에서는 수능 성적이 30%만 반영되며, 실기 점수가 70%를 차지합니다.
+따라서 가군의 경우, 일반적으로 수능 성적이 전반적으로 큰 비중을 차지하며, 일부 특수한 모집단위는 수능과 실기를 혼합하여 평가하는 방식입니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.180467593566617</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 가군 실기고사는 다음과 같이 정해져 있습니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일(화)에 시행됩니다.
+따라서 동의대학교 2024학년도 가군 실기고사 날짜는 **2024년 1월 16일(화)**입니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.1245078220512085</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 실기/실적 위주 전형으로 분류되어 35,000원의 전형료를 내야 합니다. 이와 관련하여 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외된 것으로 보입니다.
+따라서, 일반적으로 나군 수능(일반학생전형)에서는 위의 학과는 포함되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.09667876156753086</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용됩니다. 
+특히, 다군 수능(일반학생전형)의 경우 다음과 같은 내용을 확인할 수 있습니다:
+1. [표 제목 : 다군 수능(일반학생전형) 모집단위 및 모집인원]에서 각 모집단위별로 모집인원이 정해져 있으며, 이는 수능 최저기준을 충족해야 하는 학생들을 대상으로 합니다.
+2. [표 제목 : 다군 수능(일반학생전형) 전형요소 반영비율]에서 "수능 성적 반영방법은 ‘38페이지 Ⅴ. 수능성적 반영방법’ 참조"라고 명시되어 있습니다. 이 부분을 확인하면 정확한 수능 최저기준이 나와 있을 것입니다.
+3. [표 제목 : 다군 수능(일반학생전형) 동점자 처리기준]에서도 수능 성적이 동점자 처리에 중요한 기준으로 활용되는 것을 볼 수 있습니다.
+따라서, 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되며, 이는 각 모집단위별로 다르게 설정되어 있을 것으로 예상됩니다. 정확한 수능 최저기준은 입학처 홈페이지나 공지사항을 통해 확인하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>6.277255571389982e-06</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 외에도 몇몇 학과는 신설되었거나 모집을 중지하였습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.8847309066189277</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시**까지입니다.
+이 기간 내에 원서접수 사이트 접속을 완료해야 하며, 이 시간 이후에는 접속이 차단되어 원서접수를 할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.169795851541748</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형들은 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형)**:
+   - 전형요소 반영비율이 변경되었습니다.
+     - 서류(학생부) 60% + 면접 40%
+2. **나군 학생부종합(성인학습자(정원내)전형)**:
+   - 지원 자격이 추가되었습니다.
+     - 특성화고를 졸업한 재직자
+3. **나군 학생부종합(재직자전형)**:
+   - 모집 대상이 변경되었습니다.
+     - 특성화고 교육과정 또는 1년 이상의 직업교육훈련과정을 이수한 경우만 해당
+4. **나군 실기/실적 위주 전형 (경기실적우수자전형)**:
+   - 지원 자격이 변경되었습니다.
+     - 지원 가능 대상이 제한됨 (특정 모집단위에 한해)
+5. **나군 학생부교과(농어촌학생전형)**:
+   - 지원 자격이 변경되었습니다.
+     - 특수목적고 출신자 지원 불가
+이러한 변화는 각 전형의 평가 기준이나 지원 자격에 영향을 미칠 수 있으므로, 정확한 정보를 얻기 위해서는 공식 홈페이지나 입학처와 직접 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.2570804920112014</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적(일반학생전형)에서는 실기가 70%의 비중을 차지합니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 속성]
+``` 전형명 / 모집단위 / 전형요소 반영비율{ 수능 / 실기 } ```
+[표 내용]
+```
+가군 실기/실적 (일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / } /
+```
+따라서 가군 실기/실적 전형에서 수능은 30%, 실기는 70%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.004464997296941434</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부의 세부 전공은 다음과 같습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 미래융합대학에 속해 있으며, 평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형 등 다양한 전형으로 모집됩니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.3681613485563215</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 요구하는 학과는 다음과 같습니다:
+1. 패션디자인학과
+이는 표에서 "실기/실적 (일반학생전형)" 열에 해당 정보가 기재되어 있습니다. 패션디자인학과는 이 전형방법에서 실기고사를 요구하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.220889329722604</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (실기종목: 제자리 멀리뛰기, Z-런)
+2. 태권도학과
+3. 경기지도학과 (배드민턴, 축구)
+이러한 학과들은 실기/실적 위주 전형을 통해 지원할 수 있습니다. 각 학과별로 실시되는 실기 종목과 해당 종목의 배점 비율 등 자세한 내용은 제공된 표에서 확인하실 수 있습니다.
+추가적으로, 지원하려는 학과에 대한 자세한 정보와 요구 사항을 확인하시고, 필요하다면 대학 입학 홈페이지나 관계부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.1138443213538323</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 학부는 미래 융합 분야에 초점을 맞추고 있으며, 다양한 산업과 생활 문화와의 접점에서 새로운 가치를 창출하는 전문가 양성을 목표로 합니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.306148526134994</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 일반학생전형에서 특수목적고등학교(과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고) 학생들은 지원 가능합니다.
+참조할 수 있는 표는 다음과 같습니다:
+[고교유형별 지원자격]
+``` 모집군 / 전형명 / 고교유형별 지원자격 [ 일반고 / 자율고 / 특수목적고 { 과학고, 국제고, 외국어고 / 예술고, 체육고 / 마이스터고 } / 특성화고 { 특성(직업) / 특성(대안) } / 영재학교 / 기타 { 학력인정고 / 방송통신고 / 각종학교 } / 검정고시 / 외국고 ]
+```
+특수목적고등학교는 모두 [ 지원 가능 ]으로 표기되어 있어, 일반학생전형으로 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.1311286988976028</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집인원을 확인해야 합니다. 제공된 표 중 '전형유형별 모집단위별 모집인원'에 대한 정보가 없으므로, 주요 학과들의 정원 내 모집인원을 직접적으로 확인하기는 어렵습니다.
+하지만, 표에서 일부 학과의 정원 내 모집인원을 추정해 볼 수 있습니다. 예를 들어:
+- 경영학과: 15명
+- 금융경영학과: 30명
+- 부동산자산경영학부(부동산투자학, 부동산개발경영학): 7명 + 7명 = 14명
+- 인문사회과학대학의 여러 학과들: 각각 6~24명 정도
+이 중에서 가장 많은 모집인원을 가진 학과는 **금융경영학과**로 보입니다. 금융경영학과가 30명을 모집하는 것을 확인할 수 있습니다.
+따라서, 현재 정보를 바탕으로 추정하면 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **금융경영학과**로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.01037428406414801</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是来自特定地区的特殊教育高中毕业生，并且符合其他条件（如在农村地区或指定的偏远地区就读并居住），那么你有可能符合东义大学农林中学类型学生的平成学部综合招生资格。
+具体来说：
+- 特殊教育高中毕业生可以申请。
+- 你需要证明你在农村地区或指定的偏远地区就读并居住。
+- 需要提交相关证明文件，如学校生活记录簿等。
+建议你仔细查看东义大学的具体要求和指南，并准备相应的证明材料。如果有疑问，可以直接访问东义大学官网（https://ipsi.deu.ac.kr/main.do）获取更多信息或直接联系招生办公室进行确认。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>5.041546010333079e-232</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }: 317.87 / 7.35
+- 영어 등급 { 평균 / 표준 편차 }: 3.77 / 0.67
+- 수능 4개 영역 등급 { 평균 / 표준 편차 }: 4.49 / 0.30
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }: 434.70 / 8.01
+이 중에서 국어 + 수학 + 탐구(2개)의 평균 표준 변환 점수는 **317.87**입니다.</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.07779525998877042</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+- 영어 등급의 평균: 3.30
+- 수능 4개 영역 등급의 평균: 4.17
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 450.71
+이 정보는 제공된 표에서 소프트웨어공학부 관련 데이터를 추출하여 작성되었습니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.1478171295280465</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 합격자 발표 일정은 다음과 같습니다:
+1. 최초합격자 발표:
+   - 날짜: 2024년 2월 2일 (금) 오후 2시
+   - 방법: 입학안내 홈페이지에서 개별 조회
+2. 충원 합격자 발표:
+   - 1차: 2024년 2월 14일 (수) 오전 9시
+   - 2차: 2024년 2월 15일 (목) 오전 9시
+   - 3차 이후: 개별 전화 통보
+3. 합격자 발표 방법:
+   - 홈페이지에서 개별 조회
+   - 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령 가능
+4. 합격자 발표 후 등록금 납부 기한:
+   - 최초합격자 등록: 2024년 2월 7일 (수) ~ 13일 (화)
+   - 충원 합격자 등록: 각 차례별로 해당 일정 내에
+주의사항:
+- 모든 지원자는 합격 여부를 홈페이지에서 확인해야 합니다.
+- 합격 후 지정 기한 내에 등록금을 납부하지 않으면 입학이 포기됩니다.
+상세 정보는 공식 입학 안내 홈페이지를 참조하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.238666270424965</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 태권도학과의 면접이 있습니다. 대기실 및 입실 시간 안내는 2024년 1월 12일(금)부터 입학안내 홈페이지에서 확인할 수 있습니다.
+다른 학과의 면접 일정은 다음과 같습니다:
+- 디자인조형학과, 체육학과: 2024년 1월 17일(수)
+모든 지원자는 전형일정에 명시된 날짜에 맞춰 면접을 보러 가야 합니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1181492836859329</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>依据提供的信息，韩医专业（한의예과）的最低入学标准如下：
+- 数学（微积分/几何）考试：获得数学（微积分或几何）科目的标准分数。
+- 英语：英语等级分数。
+具体来说，在数学方面，需要参加微积分或几何科目并取得相应的标准分。在英语方面，则根据考生的英语等级得分来评估。
+请注意，这里提到的是最低入学标准，并不意味着所有达到这些标准的申请者都会被录取。实际录取过程中还会考虑其他因素，如综合成绩、面试表现等。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.0003265353652381744</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到2024年各专业在普通类招生（정시）中的具体最低录取标准（수능최저학력기준）。不过，通常情况下，大学会在其官方网站上发布具体的最低录取标准。因此，建议您访问东国大学的官方网站（http://ipsi.deu.ac.kr/main.do），查看最新的招生简章和相关要求。
+如果您需要了解更详细的信息或确认是否有特定专业的最低录取标准，请直接联系学校招生办公室进行咨询。</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.0007202666558699544</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다. 특히, 3차 이후의 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 이 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.4141743705277657</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>附加合格者的通知发布于2024年2月14日（星期三）上午9点。
+具体来说，根据表格中的信息：
+- **附加合格者 ( 충원 합격자) 第一次 (1차) 发布通知**：2024. 02. 14.(水) 09:00
+- **附加合格者 (补充合格者) 第一次 (1차) 注册**：2024. 02. 14.(水) 09:00~16:00
+所以，第一次附加合格者的通知发布是在2024年2月14日上午9点。</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.265261945118576</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교에서 추가모집을 진행할 수 있습니다. 추가모집에 대한 자세한 내용은 입학처 홈페이지를 확인하시거나, [입학처 웹사이트 링크](https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것이 좋습니다. 추가모집의 경우 모집인원이 정해져 있으므로, 지원 가능 여부와 자격 요건 등을 꼭 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.2223202757438476</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 동의대학교에서 제공하는 전형 중 하나로, 주요 특징과 지원 자격 및 기타 정보는 다음과 같습니다:
+### 주요 특징:
+- **모집단위 및 모집인원**: 미래융합대학 라이프융합학부와 부동산자산경영학부에 대한 학생부종합 평생학습자전형으로 모집됩니다.
+- **지원 자격**:
+  - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+  - 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)
+### 재직기간 산정:
+- **재직기간**: 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+- **산출 기준**: 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+- **중복 기간 처리**: 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+### 전형요소 반영비율:
+- **전형요소 반영비율**: 면접과 서류 평가를 통해 결정되며, 구체적인 비율은 표에서 확인 가능합니다.
+### 동점자 처리기준:
+- 1위: 면접 성적 상위자
+- 2위: 서류평가 공동체역량 영역 성적 상위자
+- 3위: 서류평가 전공적합성 영역 성적 상위자
+### 추가 정보:
+- **면접고사**: 학교생활을 열심히 하고, 선행학습과 사교육의 의존없이 준비할 수 있는 학생 개인의 입장과 경험을 평가 대상으로 합니다.
+- **서류평가 영역**: 공동체역량, 학업역량, 전공적합성 등 다양한 영역에서 평가됩니다.
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 자는 해당 조건을 충족시키고 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.3121554344350128</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>6년 과정 지원 자격:
+- 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌 지역에 거주한 자
+12년 과정 지원 자격:
+- 부모의 거주지와는 상관없이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자
+추가 조건:
+- 국내 고교 졸업(예정)자로서 6년 과정, 12년 과정 중 하나에 해당해야 함
+- 교육진흥법 시행규칙 제2조에 따른 도서·벽지로 지정된 지역은 농어촌 지역으로 인정됨 (태백시는 예외 없이 농어촌 지역으로 인정)
+- 농어촌 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다
+- 행정구역은 초·중·고등학교 재학 당시의 행정구역 단위를 적용하며, 재학 도중 또는 졸업 후에 읍·면으로 개편된 경우도 읍·면 지역으로 간주됨
+- 지원자의 거주지와 부모의 거주지는 동일하지 않아도 됨
+- 재학기간과 거주기간은 연속된 연수만 인정됨 (학업 중단 후 재입학할 경우에도 거주기간은 연속되어야 함)
+- 최초 입학일부터 졸업일까지 농어촌 또는 도서·벽지에 거주, 재학하지 않으면 불합격 또는 합격 이후에도 입학이 취소될 수 있음
+- 지원자격에 대한 추가 검증이 필요한 경우 관련 서류를 제출받아 확인하며 전화 및 현장실사를 할 수 있음</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1.341095113691982e-05</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사의 장소는 각 모집단위별로 다릅니다. 일반적으로 실기고사는 동의대학교에서 진행됩니다. 예를 들어:
+- 레저스포츠학과와 태권도학과의 실기고사는 대회장이나 동의대학교 내에서 실시될 것입니다.
+- 디자인조형학과, 체육학과 등의 실기고사는 동의대학교 내 특정 시설에서 진행될 예정입니다.
+확실한 장소와 시간은 전형일정 안내를 통해 공지되므로, 지원자는 해당 정보를 확인하여 준비해야 합니다. 만약 구체적인 장소가 아직 알려져 있지 않다면, 입학관리팀이나 동의대학교 홈페이지를 참조하거나 문의하는 것이 좋습니다.
+추가적으로, 실기고사 당일에는 반드시 지정된 시간에 도착하고, 필요할 경우 개인 품질과 운동복 등을 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.003068072447668255</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. 운동복 및 운동화를 착용해야 합니다.
+   - 스파이크, 축구화 등 특수화는 불가능합니다.
+   - 신발바닥에 이물질이 가착되지 않도록 주의해야 합니다.
+2. 실기종목별로 준비물이 필요합니다:
+   - 제자리 멀리뛰기: 없음
+   - 메디신볼 던지기: 메디신볼 (남자 3kg, 여자 2kg)
+   - Z-런: 없음
+3. 실기 당일 부상 또는 기타 사유로 기권한 경우 해당 종목에 최저점수를 받게 됩니다.
+4. 각 실기종목별로 2회 반칙 시 최저점수를 받게 됩니다.
+따라서, 체육학과의 실기고사는 운동복과 운동화를 착용하고 필요한 도구를 가져가야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.002682735702881449</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형 일정에 따르면, 수시 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서, 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+따라서, 수시 충원합격자 발표 후에는 합격자에게 직접 전화를 걸어 확인하는 것이 일반적입니다. 하지만 공식적으로는 별도의 전화 통보가 이루어지지는 않을 것으로 보이므로, 지원자는 홈페이지에서 합격 여부를 확인하고 등록금 납부 기간 내에 반드시 학교에 접속하여 확인해야 합니다.
+만약 합격통지를 받았다면, 해당 학교 입학관리팀으로부터 전화로 연락을 받을 수 있으므로, 전화번호가 정확하게 입력되어 있는지 확인하고, 가능하다면 핸드폰에서 번호를 저장해두는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.1294523893919603</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접 확인할 수 없습니다. 하지만, 2024학년도 경찰행정학과의 모집 상황을 통해 유추할 수 있습니다.
+2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원 인원이 29명으로 경쟁률이 약 4.14:1입니다. 최초합격자는 7명 중 6명을 선발하였고, 충원 합격자는 추가로 3명을 선발하였습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.71이고, 영어 등급의 평균은 3.14이며, 수능 4개 영역 등급의 평균은 3.87입니다.
+이러한 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과는 유사할 가능성이 높지만, 정확한 데이터는 해당 대학의 공식 웹사이트나 입학처에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.03942222588283388</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히, 학생부종합전형과 농어촌학생전형 등에서 수능 응시가 필수적으로 요구되지 않습니다.
+특히 주목할 점은:
+1. **학생부종합전형**:
+   - 일부 전형에서는 수능을 제외하고 학생부를 중심으로 평가합니다.
+2. **농어촌학생전형 (정원외)**:
+   - 고교 6년 과정 또는 12년 과정을 농어촌 지역에서 이수한 자에게 지원자격이 주어집니다.
+3. **성인학습자 전형**:
+   - 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다.
+4. **재직자전형 (정원외)**:
+   - 산업체 근무 경력을 갖춘 재직자를 대상으로 합니다.
+따라서 수능을 응시하지 않아도 지원이 가능한 전형들이 있습니다. 하지만 특정 전형에서는 수능 점수를 반영하기 때문에, 해당 전형의 세부 조건을 꼭 확인해야 합니다.
+더 자세한 내용은 입학처 홈페이지나 대학 입학규정을 참조하시거나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>9.763158686617843e-07</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 경우, 일반적으로 고등학교 졸업 후 10년 이상 경과한 자는 정시모집에 지원할 수 없습니다. 대다수의 대학은 최소 3년 이내의 고교 졸업자 또는 해당 연령대의 학력을 갖춘 자를 대상으로 합니다.
+하지만, 일부 특별전형이나 재직자 전형 등에서는 예외적으로 고등학교 졸업 후 오랜 시간이 경과한 분들을 지원 대상으로 할 수 있습니다. 따라서 정확한 답변을 위해서는 동의대학교 입학 홈페이지나 학교 관계부서에 직접 문의하시는 것이 좋습니다.
+[참고 링크: https://ipsi.deu.ac.kr/main.do]</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.1680705362463775</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집일정은 다음과 같습니다:
+1. **나군 실기/실적(경기실적우수자전형)**:
+   - **접수 기간**: 2024년 1월 3일 (수) ~ 1월 12일 (금) 17:00까지
+   - **접수 장소**: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+2. **나군 학생부교과(농어촌학생전형)**:
+   - 정원외 모집단위 및 모집인원은 아직 제공된 정보 없음.
+3. **수능(일반학생전형) 최종등록자**:
+   - **접수 기간**: 2024년 1월 9일 (수) ~ 1월 18일 (금) 17:00까지
+   - **접수 장소**: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+이 일정은 각 전형별로 다르게 설정되어 있으며, 접수 기간과 장소는 공통적으로 제공된 정보입니다. 정확한 자세한 내용은 동의대학교 입학처 웹사이트를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.1135116514061909</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **나군 학생부교과(농어촌학생전형) - 정원외**:
+   - **제출기간**: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+   - **제출장소**: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+2. **나군 학생부종합(성인학습자(정원내)전형)**:
+   - **최종등록자 추가 제출서류**: 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 제출해야 함
+3. **나군 학생부종합(성인학습자(정원외)전형)**:
+   - **최종등록자 추가 제출서류**: 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 제출해야 함
+4. **나군 학생부종합(재직자전형)**:
+   - **최종등록자 추가 제출서류**: 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 제출해야 함
+이러한 일정은 각 전형별로 다르게 적용되므로, 정확한 정보는 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.211752177181095</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **학생부종합(조기취업형계약학과전형)**:
+   - 이 전형에서는 수능 성적을 반영하지 않습니다.
+2. **나군 학생부교과(농어촌학생전형)**:
+   - 이 전형에서도 수능 성적이 필요하지 않습니다.
+이 외의 대부분의 전형은 수능 성적을 필수적으로 요구하므로, 수능 미응시자는 위 두 전형만 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1884353882007609</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024년도 모집 정보를 바탕으로, 전자공학과의 충원 합격은 1차와 2차가 이루어졌습니다. 
+특히, 표에서 다음과 같은 내용을 확인할 수 있습니다:
+- 2024년 2월 14일(수) 09:00에 1차 충원 합격자 발표가 있었습니다.
+- 2024년 2월 15일(목) 09:00에 2차 충원 합격자 발표가 있었습니다.
+따라서 전년도의 경우와 동일하게, 전자공학과는 최소 1차와 2차까지의 충원 합격이 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.195076243138807</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 입학처의 전화번호는 직접적으로 언급되어 있지 않습니다. 일반적인 대학교 입학처의 연락처를 찾기 위해서는 다음과 같은 방법을 사용할 수 있습니다:
+1. 동의대학교 공식 홈페이지를 방문하여 "입학처"나 "문의하기" 등의 링크를 클릭해보세요.
+2. 동의대학교의 공지사항이나 안내서에서 전화번호를 확인해 보세요.
+3. 지역전화검색 서비스 등을 이용해 동의대학교 입학처의 연락처를 찾아보세요.
+만약 이 정보가 필요하다면, 위 방법들을 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.03881911475867953</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.8305159086597362</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형 지원을 위한 주요 서류는 다음과 같습니다:
+### 6년 과정 (농어촌(읍∙면)지역 소재 중·고등학교에서 전 교육과정을 이수한 자)
+- **지원자 본인의 가족관계증명서** 1부
+- **지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)** 
+- **중학교 학교생활기록부 1부**
+- **고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)**
+  - 부모가 사망한 경우, '사망'이 명시되어 있지 않은 경우에는 제적등본 1부를 추가로 제출해야 합니다.
+  - 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부와 본인의 기본증명서(상세) 1부를 추가로 제출해야 합니다.
+### 12년 과정 (부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자)
+- **지원자 본인의 주민등록초본 1부**
+- **초등학교 학교생활기록부 1부**
+- **중학교 학교생활기록부 1부**
+- **고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)**
+**추가 제출서류:**
+최종 등록자 중 고교 졸업예정자는 졸업 이후 추가로 다음과 같은 서류를 제출해야 합니다:
+- **고교 졸업증명서**
+  - 6년 과정의 경우, 지원자 본인, 부모 각각의 초본 1부 (총 3부)
+  - 12년 과정의 경우, 지원자 본인의 초본 1부
+**주의사항:**
+- 주민등록초본은 고교 졸업 이후 발급되어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 합니다. 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+위와 같은 서류들을 2024년 1월 3일부터 1월 12일까지 제출해야 하며, 도착분에 한해 유효합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.6058318213305277</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원을 위해 제출해야 하는 주요 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자) 
+추가로, 부모 모두 농어촌 지역에서 거주한 경우에만 제출해야 하는 서류는 없습니다.
+주의사항:
+- 제출서류는 2024년 1월 1일 이후 발급된 것으로 제출해야 합니다.
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 최종 등록자 중 고교 졸업예정자는 졸업 후 추가서류를 제출해야 합니다.
+상세한 내용과 추가 요구 사항은 공식 입학 안내 사이트에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.5419438042171638</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到东义大学在2024年定期招生（정시모집）中的低收入机会均等类型（저소득 기회균등 전형）是否会被录取。因此，根据现有信息无法确定答案。
+如果您需要了解具体的录取政策，请访问东义大学的官方网站或直接联系学校的招生办公室以获取最准确的信息。通常这类详细信息会在学校官网的招生页面或者通过官方发布的招生简章中提供。建议您查看最新的招生手册或直接咨询学校确认相关信息。</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.05358676437441655</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2.5등급은 절사하여 3등급으로 처리됩니다.
+수능 탐구 영역의 등급 평균산출 시 소수점 셋째자리에서 절사한다는 내용이 포함되어 있습니다. 따라서 2.5등급은 소수점 셋째자리에서 절사하여 3등급으로 처리됩니다.
+관련된 정보는 다음과 같습니다:
+1. [표 제목] 수능 반영영역 및 가산점
+   - 탐구영역은 지정과목이 없으며, 영어영역은 등급에 따른 점수를 반영합니다.
+   - 백분위에 따른 변환표준점수를 반영하며, 등급 평균산출 시 소수점 셋째자리에서 절사합니다.
+2. [표 제목] 수능 전형성적 산출방법
+   - 탐구 표준점수는 탐구 2개 과목의 표준점수를 합산한 점수를 반영합니다.
+   - 등급 평균산출 시 소수점 셋째자리에서 절사합니다.
+따라서 2.5등급은 3등급으로 처리됩니다.</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.08100857127665675</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 14일(수) 09:00
+   - 등록 기간: 2024년 2월 14일(수) 09:00 ~ 16:00
+2. **2차 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 15일(목) 09:00
+   - 등록 기간: 2024년 2월 15일(목) 09:00 ~ 16:00
+3. **3차 충원 합격자 발표 및 등록**:
+   - 날짜: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+   - 등록 기간: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+이러한 과정을 통해 최종 합격자를 선발합니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.1982447875484124</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 정보를 바탕으로, e비즈니스학과의 모집인원과 지원자들의 경쟁률을 고려해 답변드리겠습니다.
+1. **e비즈니스학과의 모집 인원**: 10명입니다.
+2. **수능 성적 평균 및 경쟁률**:
+   - e비즈니스학과의 수능 4개 영역 등급 평균은 5.30입니다.
+   - 지원자들의 경쟁률은 약 2.40:1입니다.
+이 정보를 바탕으로, 수능 성적이 4.6인 지원자가 e비즈니스학과에 정시 전형으로 추가 합격 가능성을 판단해보겠습니다:
+- **경쟁률**: 현재의 경쟁률은 약 2.40:1입니다. 이는 모집 인원 대비 지원자의 비율을 나타내며, 이 수치가 낮아서는 정시로 추가 합격하기 어렵다고 볼 수 있습니다.
+- **수능 성적**: 4.6 등급은 평균보다 약간 낮습니다. e비즈니스학과의 수능 4개 영역 등급 평균이 5.30인 것을 고려하면, 이 수준의 성적이 정시로 추가 합격하기는 어렵다고 볼 수 있습니다.
+하지만, 정확한 답변을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **모집 인원과 지원자 수**: e비즈니스학과의 모집인원이 10명이고, 현재 지원자의 수가 어느 정도인지 확인해야 합니다.
+2. **추가 합격 가능 인원**: 정시로 추가 합격 가능한 인원은 모집인원을 초과한 지원자 중에서 선발됩니다.
+따라서, e비즈니스학과의 경우 4.6 등급으로 정시 전형으로 추가 합격하기는 어렵다고 판단할 수 있습니다. 하지만 최종 결정은 입학관리위원회가 정하는 기준에 따라 이루어지므로, 지원자의 전체 성적과 경쟁률을 고려하여 최종 결과를 확인해보시는 것이 좋습니다.
+추가로, 입학전형의 공정한 시행 및 운영을 위해 모든 지원자는 합격 여부를 반드시 홈페이지에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.2490871045522577</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **e비즈니스학과 (가군) 수능 위주 모집**:
+   - 根据提供的表格信息，e비즈니스学和的录取标准是：
+     - 国语 + 数学 + 科目(2个) (加权分) 平均 317.87 / 7.35
+     - 英语等级 平均 3.77 / 0.67
+     - 数学4个科目等级 平均 5.37 / 0.60
+2. **你的成绩**:
+   - e비즈니스学和的录取标准中，数学4个科目的平均等级为5.37。
+   - 你提供的等第是5.3。
+3. **比较与分析**:
+   - 你的数学4个科目等级（5.3）略低于e비즈니스学和的平均要求（5.37），但差距不大，可能还有机会。
+   - 其他科目的成绩也需要达到一定的标准。例如：
+     - 国语 + 数学 + 科目(2个) (加权分) 的平均值为 317.87 / 7.35
+     - 英语等级的平均值为 3.77 / 0.67
+4. **综合考虑**:
+   - 虽然你的数学等第略低于平均水平，但其他科目如果表现良好，仍然有可能被录取。
+   - 另外，还需要参考国语、数学总分以及英语等级的具体情况。
+综上所述，虽然你的数学等第稍低一些，但只要其他科目的成绩足够好，并且整体分数达到一定水平，还是有一定机会被e비즈니스学和录取的。建议详细查看自己的具体分数并进行综合评估。</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.03818877614500241</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了评估您是否有资格被eBiznesse학과(电子商务学)预录取,我们需要考虑以下几个因素:
+1. 您的成绩单和考试成绩:
+   - 根据您的成绩单,您的成绩看起来不错。
+   - 但是需要具体看该专业的录取标准是什么。
+2. 面试表现:
+   - 虽然您没有提到面试情况,但良好的面试表现对预录取也很重要。
+3. 其他申请材料:
+   - 您是否提交了所有必要的申请文件?
+   - 是否满足其他特殊要求或条件?
+4. 专业具体的录取标准:
+   - 不同专业的录取比例和标准可能不同。
+   - 需要查看电子商务学的具体录取标准。
+5. 竞争情况:
+   - 当年该专业的竞争程度如何?
+   - 您的成绩在所有申请者中的排名如何?
+综合来看,您的成绩看起来不错,但是否能预录取还需要考虑其他因素。建议您:
+1. 查看电子商务学的具体录取标准。
+2. 了解当年的竞争情况。
+3. 确认是否提交了所有必要的申请材料。
+4. 准备面试并争取良好表现。
+如果还有疑问,可以直接联系学校招生办公室获取更准确的信息。祝您好运!</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.009320576265151401</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 표준점수는 상당히 높은 점수입니다. 동의대학교 간호학과의 모집요강을 보면, 해당 학과의 수능 반영 비율과 기준을 확인해야 합니다.
+1. **수능 반영 비율 및 기준**:
+   - 간호학과는 일반적으로 국어, 수학, 영어, 탐구 과목 중 2개를 선택하여 반영합니다.
+   - 각 영역의 점수는 25%씩 반영됩니다.
+2. **예상 점수 분포**:
+   - 국어: 303.44
+   - 수학: 281.29 (이 경우, 수학(확률과통계)을 선택한 것으로 보입니다)
+   - 영어: 3.88
+   - 탐구: 4.65
+3. **합격 가능성**:
+   - 간호학과의 모집인원은 22명이고, 지원 인원이 145명으로 높은 경쟁률을 보입니다.
+   - 평균적인 합격 점수는 400점 이상이어야 합니다.
+3.44이라는 표준점수가 국어와 수학에서 나온 점수를 고려하면, 이는 상당히 좋은 성적입니다. 특히 국어 점수가 높은 경우, 탐구 영역에서도 좋은 성적이 나올 가능성이 있습니다.
+따라서 3.44라는 점수로는 합격 가능성은 충분합니다. 하지만 최종적으로는 모집단위별 경쟁률과 지원자의 전체 성적 분포를 고려해야 합니다. 
+추천:
+- **모집요강 확인**: 동의대학교 간호학과의 정확한 모집요강을 확인하세요.
+- **성적 분석**: 국어, 수학, 탐구 영역에서 더 높은 점수를 얻었는지 분석해보세요.
+- **경쟁률 고려**: 경쟁률이 매우 높다면, 다른 전형이나 학과도 고려해볼 만합니다.
+결론적으로 3.44라는 점수로는 충분히 합격 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.03215693053662015</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 수능 최저점은 약 357.63점으로 보입니다 (참조: 표 "수능(일반학생전형) 최종등록자"에서 간호학과의 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }" 항목). 
+당신이 제시한 성적 2.52는 표준점수로 보이는데, 이 경우 대략 300점대 중반으로 추정됩니다. 이는 간호학과의 최저 점수보다 낮습니다.
+따라서 현재로서는 간호학과에 최종 합격하기는 어려울 것으로 예상됩니다. 하지만:
+1. 동의대학교는 수능 성적 외에도 면접 등 다른 평가 요소를 고려하므로, 전반적인 지원 자질을 잘 보여주면 가능성이 있을 수 있습니다.
+2. 최종 합격 여부는 여러 요인에 따라 달라지므로, 정확한 판단은 입학사정관들의 심사를 기다려야 합니다.
+3. 동의대학교 간호학과는 경쟁률이 매우 높으므로, 다른 대안을 고려해보는 것도 좋습니다.
+추가적으로 지원 전략을 세우기 위해서는:
+- 면접 준비를 철저히 하세요.
+- 자기소개서와 추천서 등을 잘 작성하여 지원 자질을 잘 보여주세요. 
+- 동의대학교의 학과 특성과 취업 방향성을 잘 이해하고 지원 이유를 명확하게 설명하세요.
+이런 점들을 고려하면 더 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.03615805316517115</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 간호학과에서 보통 충분한 점수일 것입니다. 그러나 간호학과의 경쟁률과 모집인원, 그리고 해당 모집단위의 최저합격 기준 등을 고려해야 합니다.
+간호학과의 특징:
+1. **경쟁률**: 간호학과는 일반적으로 높은 경쟁률을 보입니다.
+2. **모집인원**: 정확한 모집인원이 필요합니다.
+3. **최저합격 기준**: 일부 대학에서는 특정 학교생활기록부 등급이나 수능 점수를 최저합격 기준으로 설정할 수 있습니다.
+다음은 고려해야 할 몇 가지 요소입니다:
+1. **경쟁률과 모집인원**:
+   - 경쟁률이 높다면, 3.7의 GPA는 충분하지 않을 수도 있습니다.
+   - 경쟁률이 낮다면, 3.7은 좋은 점수일 수 있습니다.
+2. **최저합격 기준**:
+   - 일부 대학에서는 특정 학교생활기록부 등급이나 수능 점수를 최저합격 기준으로 설정할 수 있으므로, 이에 대한 정보가 필요합니다.
+3. **추천서나 면접 성적**:
+   - 간호학과는 종종 추천서나 면접 성적이 중요하게 작용하기도 합니다.
+4. **개인 특성 및 경험**:
+   - 개인의 특성, 경험, 동기부여 등이 합격 여부에 영향을 줄 수 있습니다.
+따라서, 정확한 답변을 위해서는:
+- 해당 대학 간호학과의 모집인원과 최저합격 기준을 확인해야 합니다.
+- 경쟁률을 파악해야 합니다.
+- 추천서나 면접 성적 등 다른 평가 요소도 고려해야 합니다.
+추천되는 방법은:
+1. 해당 대학의 입학처 웹사이트를 방문하여 간호학과의 모집요강을 확인합니다.
+2. 전문가와 상담하거나, 동의대학교 입학관리팀에 문의하여 자세한 정보를 얻는 것입니다.
+이런 정보들을 종합적으로 고려하면 더 정확한 답변을 제공할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.01180221307047887</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 경쟁률이 6.59로 매우 높은 편입니다 (지원자 137명, 모집인원 22명). 
+성적 평균이 357.63점으로, 2.58점은 이보다 상당히 낮습니다.
+하지만 정시 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 성적이 평균보다 약간 낮더라도 다른 면접이나 서류평가에서 높은 점수를 받으면 가능성이 있습니다.
+2. 지원자의 전반적인 경력, 활동 등이 매우 돋보여서 합격될 수도 있습니다.
+3. 동의대학교는 종종 성적이 약간 낮더라도 특별한 이유가 있는 지원자를 고려하는 경우가 있어요.
+결론적으로 100% 확실하지 않지만, 성적만으로는 어려울 것으로 보입니다. 전반적인 경력과 활동을 잘 준비하고 면접에서도 좋은 평가를 받는다면 기회는 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.1140490817060356</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学系(游戏工学部)录取,我需要更多的信息:
+1. 您的具体分数是多少?
+2. 游戏学系的最低录取分数线是多少?
+3. 您是否有其他备选专业或学校?
+通常情况下,能否被录取取决于您的总分与该专业的录取标准之间的比较。如果您的综合成绩(包括高考各科目的标准化转换分数)超过了游戏学系的最低录取线,并且没有达到更优选择的专业分数线,那么您有可能会被录取。
+建议您:
+1. 查询游戏学系2024年的具体录取分数线。
+2. 比较自己的总分与这些分数线。
+3. 如果担心被退档,可以考虑填报其他备选专业或学校以增加录取几率。
+请提供上述信息后,我可以帮您更准确地判断是否能被录取。</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>9.357460075690145e-79</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 게임공학과의 정시 모집요강을 바탕으로 분석해보겠습니다.
+1. **전형 유형 및 성적 반영 비율**:
+   - 게임공학과는 "실기/실적 위주" 전형입니다.
+   - 실기/실적 위주 전형의 경우, 수능 최저 기준이 없습니다.
+   - 합격 요소 중 수능 점수는 30%에 해당합니다.
+2. **전형요소 반영 비율**:
+   - { 0 /  0 /  0 /  70 /  0 /  30 / }
+   - 이중 수능은 30%를 차지합니다.
+3. **예상 점수 계산**:
+   - 수능 최저 기준이 없으므로, 주요 요소는 실기와 서류입니다.
+   - 수능 점수가 4.16으로 가정하면, 이는 전체 합계에서 약 20-30점 정도의 영향을 미칠 것으로 추정됩니다.
+4. **실적 및 서류 평가**:
+   - 실기 점수: 424.05
+   - 서류 점수: 424.05 (면접 포함)
+5. **합계 점수 예상**:
+   - 수능 30% 반영 시, 수능 점수가 약 12-18점 정도의 영향을 미칠 것으로 추정됩니다.
+   - 따라서, 전체 합계는 약 436-442점 사이일 것입니다.
+6. **추가 합격 가능성**:
+   - 게임공학과 모집인원은 3명입니다.
+   - 현재 점수로는 상위권에 속할 것으로 보이지만, 정확한 추가 합격 가능 횟수는 모집 인원 및 기타 지원자의 성적 분포에 따라 달라질 수 있습니다.
+**결론**: 
+- 수능 4.16점으로 게임공학과를 지원하면, 상위권에 속할 것으로 예상되나, 정확한 추가 합격 가능 횟수는 모집 인원 및 기타 지원자의 성적 분포에 따라 달라질 수 있습니다.
+- 현재 점수로는 1~2번 정도의 추가 합격 가능성은 있을 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.02593557884104623</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경영정보학과의 경우, 정시 모집요강을 살펴보면 다음과 같은 정보가 있습니다:
+- **정시모집군**: &lt;나&gt;군 학생부종합(조기취업형계약학과전형)
+- **성적 기준**: 성적은 학교생활기록부와 수능 점수를 종합적으로 평가합니다.
+- **학생부 교과성적 반영방법**:
+  - 전 모집단위(한의예과 제외) 12과목 중 석차등급 상위 4과목
+  - 진로선택과목 성적반영: A: 1등급 B: 3등급 C:5등급
+이 정보를 바탕으로, 경영정보학과의 정시 성적이 3.75인 경우, 최초합격자로 가능할지는 다음과 같이 판단됩니다:
+- **성적 평균**: 3.75는 중간 이상의 성적입니다.
+- **학생부 교과성적**: 12과목 중 석차등급 상위 4과목을 반영하므로, 이 중에서 좋은 성적이 있으면 가능합니다.
+- **진로선택과목 성적**: A: 1등급 B: 3등급 C:5등급으로, 이 부분도 고려해야 합니다.
+따라서, 경영정보학과의 정시 성적이 3.75인 경우, 최초합격자로 가능할 가능성은 있습니다. 하지만 최종 결정은 학교생활기록부와 수능 점수를 포함한 종합적인 평가 결과에 따라 결정됩니다.
+추가적으로, 경쟁률과 모집인원, 지원 인원 등을 고려하여 더 정확한 판단을 내리시는 것이 좋습니다. 만약 불안하다면, 동의대학교 입학관리팀에 문의하시거나, 전형요강을 자세히 확인하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.04751584673958881</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学部（经管信息学部）的招生计划和要求。
+2. 最低录取分数线。
+根据提供的表格数据，我们可以看到经营信息学部的一些相关信息。但是，这些信息可能不足以直接判断是否可以被录取，因为还需要考虑具体的最低录取分数和其他因素。
+从给定的数据中，我们可以看到：
+- 经营信息学部的招生计划和要求：
+  - 招生人数：9
+  - 报名人数：95
+  - 竞争比：10.56
+  - 最终录取人数：33
+- 学生成绩数据（2024年首次录取者）：
+  - 国语 + 数学 + 探讨（2个）（加权分）标准转换分数总和 { 平均 / 标准差 }：450.78 / 5.90
+  - 英语等级 { 平均 / 标准差 }：2.88 / 0.56
+  - 四个科目等级 { 平均 / 标准差 }：3.88 / 0.14
+- 加权分总和为450.78，平均分为431.33。
+根据这些数据，我们可以推测出经营信息学部的录取分数线应该在430分以上。但是具体最低分数需要参考学校官方发布的详细招生简章或分数线公告。
+因此，仅凭成绩4.2（假设这是标准转换后的总分），很难判断是否能够被录取。建议直接查看学校的官方网站或者联系招生办公室获取更准确的信息。
+如果您想确认是否可以申请，请访问以下网站查询详细信息：
+https://ipsi.deu.ac.kr/main.do
+或者直接咨询学校招生办公室以获得最准确的答案。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.03720235568726588</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个方面的信息：
+1. 经营信息学部（一般学生）的录取标准。
+2. 您的成绩是否符合该专业的最低要求。
+根据提供的数据，我们可以看到经营信息学部的一般学生招生情况如下：
+- **招生人数**：9人
+- **报名人数**：95人
+- **竞争比**：10.56:1
+- **平均标准转换总分（含加分）**：450.78 / 5.90
+从这些数据中，我们可以推断出该专业的录取分数线应该在450左右。但是，具体到您的成绩是否能够被录取，还需要参考具体的最低录取分数。
+您提供的成绩是4.33等，这相当于标准转换总分（不含加分）大约为326.89。这个分数低于上述经营信息学部的平均标准转换总分。
+因此，仅凭您提供的成绩来看，您的成绩可能不足以被该专业录取。但是，最终是否能够录取还需要参考具体的最低录取分数线和招生委员会的具体要求。
+建议：
+1. 访问东国大学官方网站获取最新的招生信息。
+2. 联系招生办公室确认具体的要求和流程。
+3. 如果有可能，可以尝试提高成绩或申请其他更符合您分数的专业。</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.01391134888205673</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학과의 경우, 전형요소 반영비율을 살펴보면 다음과 같습니다:
+- **학생부교과**: 70%
+- **면접**: 30%
+성적만으로 판단할 때, 수능 성적이 주요한 요인입니다. 하지만 정확히 바이오응용공학과의 최저수능 점수가 공개되어 있지 않으므로, 단순히 성적이 3.33이라는 점수로는 결정하기 어렵습니다.
+다만, 학생부교과와 면접 등 다른 요소도 고려되기 때문에, 다음과 같은 절차를 따르면 가능성이 있습니다:
+1. **학생부 교과성적**: 최대한 좋은 성적을 보여주어야 합니다.
+2. **면접 준비**: 면접에서 자신의 강점과 바이오응용공학과와의 적합성을 잘 표현해야 합니다.
+**추천 사항:**
+- **학생부 성적 확인**: 현재 학생부 교과성적이 좋은지 확인하고, 필요하다면 개선할 수 있는 과목을 찾아보세요.
+- **면접 준비**: 바이오응용공학과와 관련된 경험이나 관심사를 잘 표현할 수 있도록 준비하세요.
+**결론:**
+3.33이라는 성적만으로는 확실한 결정은 어렵지만, 학생부 교과성적과 면접 등 다른 요소를 잘 준비한다면 최초등록자로 선발될 가능성이 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.07444141302712518</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 모집요강을 참고하여 답변 드리겠습니다.
+방사선학과는 다음과 같은 특징이 있습니다:
+1. **모집인원**: 5명입니다.
+2. **전형방법**: 수능 위주로 모집합니다.
+3. **수능 반영방법**:
+   - 국어, 수학(미적분 또는 기하), 영어 등급점수
+   - 탐구 과목 중 선택하여 2개 반영
+4. **가산점**: 수학(미적분 또는 기하) 응시자에게 수학 표준점수의 10% 가산점이 있습니다.
+현재 제출된 성적이 4.4정도라면, 다음과 같은 점들을 고려해야 합니다:
+- 국어와 영어 등급은 꽤 높아야 합니다.
+- 수학은 미적분 또는 기하 중 하나를 응시하고 있어 가산점이 가능합니다.
+예상적으로 4.4정도의 성적이 방사선학과에 충분할지는 다음과 같은 점들을 고려해야 합니다:
+1. **국어 등급**: 3등급 이상 필요
+2. **영어 등급**: 5등급 이상 필요 (일반적으로 6등급이 이상적)
+3. **수학 등급**: 4등급 이상 필요 (미적분 또는 기하 중 하나를 응시해야 함)
+만약 국어와 영어가 높고 수학도 괜찮다면, 이 성적이 방사선학과에 충분할 가능성이 있습니다. 하지만 정확한 판단을 위해서는:
+- 실제 수능 점수 확인
+- 탐구 과목 선택 및 등급 확인
+- 다른 모집단위와의 경쟁률 비교
+등을 고려해야 합니다.
+결론적으로, 현재 성적만으로는 확실하게 결정하기 어렵습니다. 정확한 판단을 위해서는 동의대학교 입학처 홈페이지나 전화로 상세히 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.02067175854001118</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 나군 수능(일반학생전형)의 방사선학과 모집인원과 지원인원, 경쟁률을 살펴보면 다음과 같습니다:
+- 모집 인원: 5명
+- 지원 인원: 36명
+- 경쟁률: 7.20
+방사선학과는 상대적으로 낮은 경쟁률을 보이고 있습니다 (7.20). 이에 비해您的回答需要进行以下修改：
+2024年南国大学普通学生招生的放射线学专业数据如下：
+- 招生人数：5人
+- 报名人数：36人
+- 竞争比：7.20
+从这些数据可以看出，放射线学专业的竞争相对较低（7.2:1）。因此，即使您的标准分为2.66，在这个专业中仍然有一定的录取机会。不过，具体录取情况还取决于其他因素，如学生背景、面试表现等。
+建议您：
+1. 仔细检查自己的申请材料和成绩。
+2. 准备充分的面试内容，展示个人优势和对专业的热情。
+3. 关注学校发布的最新信息和补充说明，确保所有文件齐全并按时提交。</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.07635266072284985</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66이라는 영어 등급은 4등급을 의미합니다. 표에서 제공된 정보를 바탕으로 경찰행정학과의 최종합격자들의 영어 등급 평균이 3.14였습니다.
+영어 등급에 대한 기준을 보면, 경쟁률이 매우 낮았던 아동학과와 유아교육과에서는 5등급 이상이었지만, 대부분의 학과에서 3등급 이상은 요구되었습니다. 경찰행정학과는 평균적으로 3.14였으므로, 3.66이라는 등급은 상대적으로 좋은 점수입니다.
+하지만 합격 여부를 결정하는 것은 단순히 영어 등급뿐만 아니라 전반적인 성적과 교과성적 등이 포함되므로, 정확한 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. **전체 평균점수와 경쟁률**: 2024학년도 경찰행정학과의 전체 평균점수와 경쟁률을 확인해야 합니다.
+2. **교과성적**: 국어, 수학, 사회 등 다른 과목들의 성적이 어떻게 되는지 확인해야 합니다.
+3. **학생부 성적**: 학생부 교과성적과 진로선택과목의 성적도 중요한 요소입니다.
+만약 전체 평균점수가 낮고 경쟁률이 높지 않다면, 3.66이라는 영어 등급은 충분히 좋은 점수일 수 있습니다. 하지만 만약 다른 학과들보다 경쟁률이 매우 높다면, 조금 더 높은 점수를 요구할 수도 있습니다.
+따라서, 정확한 판단을 위해서는 전체적인 성적 분포와 경쟁률 등을 고려해야 합니다. 만약 가능하다면, 동의대학교 입학관리 홈페이지나 학교 관계자에게 직접 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.1426863689411245</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 위치는 상대적으로 낮은 순위로, 합격 가능성이 매우 낮다고 볼 수 있습니다. 하지만 정확한 합격 여부를 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집인원과 지원자 수: 현재 예비 25번이 나왔다는 것은 해당 모집단위의 지원자가 많아서 아직 최종 합격자를 결정하지 못한 상태입니다.
+2. 경쟁률: 이전에 공개된 수능(일반학생전형) 최초합격자 표에서 해당 모집단위의 경쟁률을 확인할 수 있습니다. 예를 들어, 경쟁률이 4.11인 경우에는 지원자가 모집인원보다 약 4배나 많았습니다.
+3. 성적: 자신의 국어+수학+탐구(2개) 표준 변환 점수가 어느 정도인지 확인해야 합니다. 이 점수가 평균 이상이라면 합격 가능성은 조금 더 높아질 수 있습니다.
+4. 추가 모집 가능성: 정시모집에서 미충원된 인원이 있다면, 예비후보 순위에 따라 충원될 가능성이 있습니다.
+5. 기타 요인: 면접 성적이나 실기 성적이 좋은 경우에도 합격 가능성은 높아질 수 있습니다.
+결론적으로 현재 상황에서 25번이라는 위치는 매우 낮은 확률을 의미하지만, 정확한 예측은 모집인원과 지원자 수, 그리고 자신의 성적 등을 고려하여 판단해야 합니다. 따라서 최선의 준비를 하되, 너무 절망하지 않도록 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1371456514441756</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부에 대한 정확한 합격 예상 점수를 말씀드리기는 어렵습니다. 하지만, 일반적으로 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **최근 입시 경향**: 최근 몇 년간의 입시 결과를 참고하면 됩니다. 예를 들어, 2023년 법경찰행정학부의 최종 합격자들의 평균 점수와 등급을 확인할 수 있습니다.
+2. **모집인원과 지원 인원**: 모집인원이 적고 지원 인원이 많으면 경쟁률이 높아지고, 반대로 모집인원이 많고 지원 인원이 적으면 경쟁률은 낮아집니다.
+3. **성적 분포**: 국어, 수학, 영어 등 주요 과목의 성적이 어느 정도인지 확인해야 합니다. 특히 법경찰행정학부는 사회과학 계열로, 사회과목(사회/역사/도덕 포함)이 중요할 것입니다.
+4. **등급 평균**: 2023년 입시 결과를 보면 국어: 4.5점, 수학: 4.8점, 영어: 4.1점 정도의 등급 평균을 기록한 학생들이 대부분 충원 합격자였습니다.
+기준적인 예상 점수는 다음과 같습니다:
+- **국어**: 300점 이상
+- **수학**: 290점 이상 (미적분 포함)
+- **영어**: 4.5등급 이상
+이러한 기준을 충족하는 학생들은 안정적인 입학 가능성을 가지게 됩니다.
+**추천 조치:**
+1. 최근 몇 년간의 입시 결과를 확인하여 정확한 평균 점수와 등급을 파악합니다.
+2. 모집인원과 지원 인원을 비교하여 경쟁률을 예측합니다.
+3. 자신의 성적을 이 기준에 맞추어 보고, 필요하다면 강화 계획을 세웁니다.
+입시 결과는 매년 변동이 있으므로, 최신 정보를 확인하는 것이 중요합니다. 또한, 동의대학교 입학 홈페이지나 입학처와 직접 문의하여 가장 정확한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.2853088628731974</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **保育·가정상담학과（阿童学）的录取标准**：根据提供的信息，该专业的录取标准是：
+   - 模考成绩等级在5.33以上
+2. **你的模考成绩等级**：你提到你的模考成绩等级为5.33。
+3. **比较和判断**：你的模考成绩等级正好达到保育·가정상담学（阿童学）的录取标准，即5.33及以上即可满足条件。
+综上所述，如果你的模考成绩等级恰好是5.33，并且其他方面也符合东国大学的要求（如学生背景、面试等），那么理论上你是有可能被保育·가정상담학과（阿童学）录取的。不过，最终是否能够录取还需要综合考虑多方面的因素。
+建议你：
+- 确认是否有其他附加条件或要求。
+- 保持与学校招生办公室的沟通，确认所有细节。
+- 准备好其他可能需要提交的材料和参加面试等环节。
+希望这些信息对你有帮助！</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.06098210579309254</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차에서 예비 12번을 받은 경우, 합격 가능성은 매우 낮습니다. 일반적으로:
+1. 동의대학교는 정원 외 모집인원이 제한적입니다.
+2. 3차에서는 이미 많은 지원자가 선발되었거나 예비로 대기하고 있습니다.
+3. 예비 순위가 상당히 높아졌을 가능성이 큽니다.
+다만, 다음과 같은 요소들이 있을 경우 합격 가능성은 약간 높아질 수 있습니다:
+- 다른 모집단위에서 더 낮은 예비 순위를 받았다면, 이전에 선발되지 못한 단위로 재추천될 가능성이 있습니다.
+- 동의대학교가 추가 선발 인원을 확보할 경우 예비 지원자 중 일부가 합격할 수 있습니다.
+하지만 이러한 요인들이 없다면, 현재 상황에서는 합격 가능성은 매우 낮다고 볼 수 있습니다. 최종 결과는 동의대학교 입학처에서 발표하는 것이 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.3363494152545153</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대학 수능 평균 점수가 약 3.0-3.5 정도이므로, 4.75는 매우 뛰어난 성적입니다.
+유아교육과의 경우, 일반적으로 다음과 같은 특징을 가지고 있습니다:
+1. **학생부 중심**: 유아교육과는 학생부 교과성적이 중요하게 평가됩니다.
+2. **면접 및 창의성**: 면접에서의 창의성과 유아와의 소통 능력 등이 중요한 역할을 합니다.
+3. **특성화**: 유아교육과는 특성화된 교육을 받은 학생들에게 더 유리한 경쟁력을 가질 수 있습니다.
+그러나, 수능 점수만으로도 충분히 입학 가능성이 높습니다. 특히 다음과 같은 경우에 유리할 수 있습니다:
+- **학생부 성적**: 매우 높은 학생부 교과성적이 있다면 이점이 크게 작용합니다.
+- **면접 및 창의성**: 면접에서 좋은 평가를 받을 수 있다면 추가적인 경쟁력을 가질 수 있습니다.
+따라서, 4.75라는 수능 점수로 유아교육과에 입학하는 것은 충분히 가능합니다. 다만, 학생부 성적과 면접 등 다른 평가 요소도 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.1443456018840165</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(현재는 아동학과로 분류됨)에 대해 다음과 같은 정보를 바탕으로 답변 드리겠습니다.
+1. **전형 유형**: 일반학생전형
+2. **모집 단위**: 보육가정상담학과 (아동학과)
+3. **수능 최저기준**: 해당 학과의 수능 최저기준을 확인해야 합니다.
+4. **등급 환산**: 동일한 등급 4.16을 가지고 있습니다.
+**보육가정상담학과(아동학과)의 전형 요소 반영 비율:**
+- 학생부교과 (출결포함): 100%
+**학생부 교과성적 반영 방법:**
+- 반영과목: 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목
+- 진로선택과목 성적반영: A: 2등급 B: 4등급 C:6등급
+**수능 최저기준 확인 필요**: 
+보육가정상담학과(아동학과)의 수능 최저기준을 확인해야 합니다. 만약 해당 학과의 수능 최저기준이 4.16 이상이라면, 수능 점수가 충족되면 가능성이 있습니다.
+**추천 사항:**
+- **수능 최저기준 확인**: 먼저 해당 학과의 정시 모집에서의 수능 최저기준을 확인하세요.
+- **학생부 성적 확인**: 자신의 학생부 교과성적이 8과목 중 상위 8등급 내에 포함되어 있는지 확인하세요. 
+- **합격 가능성을 평가**: 수능 점수와 학생부 성적 모두 충족되면 합격 가능성은 높아집니다.
+따라서, 동의대학교 보육가정상담학과(아동학과)에 대한 정시 모집에서 수능 최저기준이 4.16 이상이라면, 등급 4.16을 가지고 있다면 합격 가능성은 있습니다. 하지만 확실한 것은 수능 최저기준 확인 후 결정해야 합니다.
+추가 정보를 원하시거나 더 자세히 분석하고 싶으시다면, 해당 학과의 정확한 수능 최저기준을 알려주시면 도와드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.02795305773404992</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 소프트웨어융합학과는 나군 학생부종합전형으로 모집됩니다. 따라서 정시로 지원하는 것은 불가능합니다.
+하지만, 소프트웨어융합학과는 나군 실기/실적 위주 전형으로도 모집되며, 이 경우 수능 점수보다는 실기 성적이 중요하게 평가됩니다.
+소프트웨어융합학과의 정원외 모집에서의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 60%
+- 면접: 40%
+이전 년도의 데이터를 참고하면, 소프트웨어융합학과에 합격하기 위해서는 평균적으로 다음과 같은 수능 점수와 등급을 받아야 합니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수: 약 400점 이상
+- 영어 등급: 3등급 이상
+따라서, 정확한 등급은 최근의 입시 결과를 참고해야 하지만, 대략적으로는 국어와 수학이 중점적으로 평가되므로 4등급 이상을 받고, 영어는 3등급 이상을 받아야 합니다. 그러나 이는 실제 합격 기준보다 낮게 설정된 것으로 보이며, 경쟁률과 입시 전략에 따라 달라질 수 있습니다.
+정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>3.417578428380222e-08</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)의 경우, 면접과 서류 평가 모두 중요한 역할을 합니다. 특히 세특 내용은 서류평가 영역에서 큰 비중을 차지하므로, 충분히 준비하는 것이 중요합니다.
+### 면접 점수와 세특 내용의 중요성
+- **면접 점수**: 면접에서는 지원동기, 학업계획, 학업역량 및 전공적합성 등을 평가받습니다. 하지만 서류평가에서 보여주는 실질적인 경험과 노력은 면접보다 더 큰 영향을 미칩니다.
+- **세특 내용**: 세특(학교생활기록부)에서는 지원자의 학업태도, 학업성취, 열정 등이 평가됩니다. 이는 실제 학교생활이나 활동에서의 경험과 노력에 대한 증거로, 면접보다 구체적이고 객관적인 평가 기준으로 작용합니다.
+### 서류 준비
+- **학교생활기록부**: 지원자의 학업태도와 성취를 보여주는 중요한 문서입니다. 실제 활동과 노력이 잘 반영되어 있어야 합니다.
+- **창의적 체험활동, 교과학습발달상황 등**: 세특 내용을 구체적으로 기재해야 하며, 학교생활기록부에 기재된 내용과 일치하도록 준비해야 합니다.
+- **학업역량 및 전공적합성 관련 활동**: 지원자가 어떤 활동을 통해 학업 역량을 키웠는지, 그리고 해당 전공과 어떻게 연관되어 있는지를 잘 설명해야 합니다.
+### 서류 작성 시 주의사항
+1. **구체적인 경험 기재**: 구체적인 사례와 날짜를 포함하여 작성하되, 과장하거나 호의적으로 기재하지 않아야 합니다.
+2. **교사 평가와 근거**: 교사의 평가와 그 근거를 명시적으로 기재해야 합니다.
+3. **학교폭력 확인**: 학교생활기록부에 학교폭력 기재 사실이 있는 경우, 이를 신중하게 다루어야 하며, 필요한 경우 학교폭력 조치내용을 설명합니다.
+### 결론
+면접 점수와 서류 평가 모두 중요하지만, 세특 내용은 서류평가에서 더 큰 비중을 차지하므로 충분히 준비하는 것이 좋습니다. 실제 경험과 노력이 잘 반영된 구체적인 사례를 기재하고, 교사의 평가와 근거를 명시적으로 기재하여 학교생활기록부를 완성해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.0008287141729814218</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下几个关键信息：
+1. 同意大学软件工程学部（Software Engineering Department）2024年招生计划中的最低录取分数线。
+2. 您提供的成绩是否达到了该专业的标准。
+根据您提供的数据表，“软件工程学部”（Software Engineering Department）的相关信息如下：
+- 2024年招生人数：30
+- 报名人数：146
+- 竞争比：4.87
+- 国语+数学+选修课（含加分）标准转换分数总和 { 平均 / 标准差 }：330.11 / 9.08
+- 英语等级 { 平均 / 标准差 }：3.30 / 0.82
+- 高考4个科目等级 { 平均 / 标准差 }：4.12 / 0.32
+- 国语+数学+选修课（含加分）标准转换分数总和 { 平均 / 标准差 }：450.71 / 10.11
+从这些数据中，我们可以看到“软件工程学部”的平均录取分数为450.71。而您提供的成绩是4.08，这显然是指的英语等级而不是总分。
+因此，仅凭您的英语等级（4.08）来看，这个成绩显然不足以满足同意大学软件工程学部2024年的最低录取要求。通常情况下，需要达到平均分数或更高才能被该专业录取。
+建议您查看具体的招生简章或者直接联系学校获取更详细的信息和确认。如果您的其他科目成绩也很好，并且英语等级能够提高到更高的水平，则有可能增加录取的机会。</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.02812271031118611</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 동일한 전형방식을 적용한다고 가정할 때, "소프트웨어융합학과"의 경우 전형요소 반영비율에서 학생부교과가 70%를 차지하고 있습니다. 
+이에 따라 평균 5등급으로 지원하는 것은 가능하지만, 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 교과성적**: 전반적으로 좋은 성적이 필요합니다.
+2. **진로선택과목**: 해당 학과와 관련된 진로선택과목에서 높은 등급을 받는 것이 중요합니다.
+3. **전체 평균 점수**: 수능 및 탐구 과목의 평균 점수가 높아야 합니다.
+따라서, 단순히 5등급만으로는 충분하지 않을 가능성이 있습니다. 전체적인 성적과 학생부 교과성적을 고려하여 지원하는 것이 좋습니다. 
+추가적으로, 정시모집에서는 수능 최저학력기준이 적용되므로, 해당 기준을 충족해야 합니다.
+만약 자세한 조언이 필요하다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.2415757629931254</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 등급은 상당히 좋은 점수입니다. 하지만 동의대학교 신소재공학과에 입학하기 위해서는 여러 요인을 고려해야 합니다.
+1. **모집 인원 및 지원자 수**: 신소재공학과는 많은 모집 인원이 있는 반면, 지원자가 많아 경쟁률이 높습니다.
+2. **성적 평균**: 표에서 보듯이 신소재공학과의 최종등록자의 등급 평균은 4.32입니다 (평균: 5.68). 이는 4.28보다 약간 낮지만, 아직 큰 차이는 아닙니다.
+3. **표준 편차**: 신소재공학과의 표준 편차가 0.49로 상대적으로 작습니다 (평균: 15.35). 이는 성적이 일정한 수준을 유지하고 있다는 것을 의미합니다.
+4. **전형 요소**: 동의대학교에서는 수능 점수 외에도 학생부, 면접 등 다양한 요소를 고려하기 때문에, 단순히 성적만으로 판단할 수 없습니다.
+5. **개인 특성 및 경험**: 개인의 특성, 경험, 활동 등도 중요한 역할을 합니다.
+따라서 4.28이라는 점수로는 충분히 가능성이 있지만, 확실한 것은 아닙니다. 경쟁률이 높고 평균 성적이 높기 때문에, 다른 요소들도 잘 준비하고 있어야 합니다. 
+추천 사항:
+- **학생부 및 활동**: 학생부에서 좋은 성적을 보여주고, 다양한 활동과 경험을 기록하세요.
+- **면접 준비**: 면접에서도 자신의 열정과 적합성을 잘 전달할 수 있도록 준비하세요.
+- **추천서**: 필요하다면 추천서를 받는 것도 도움이 될 수 있습니다.
+결론적으로 4.28이라는 점수로는 가능성이 있지만, 확실한 것은 아닙니다. 다양한 요소들을 고려하여 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1319001613234472</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능 일반학생전형에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 수능 일반학생전형은 주로 수능 점수와 교과 성적을 기반으로 학생들을 선발합니다.
+하지만, 일부 모집단위나 전형에서 자기소개서를 제출하도록 하는 경우도 있으므로, 정확한 정보를 얻기 위해서는 해당 해의 공식 입학전형요강이나 동의대학교 입학 홈페이지를 확인해보시는 것이 좋습니다. 특히, 학생부종합전형과 같은 전형에서는 자기소개서가 요구될 수 있습니다.
+현재 제공된 정보로는 수능 일반학생전형에서 자기소개서 제출은 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.0001341133837823333</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수가 정확한 수능 표준점수인지, 아니면 등급인지 명확하지 않습니다. 일반적으로 수능 점수는 표준점수로 제공되며, 이 점수는 평균 500점이고 표준편차가 100점인 정규분포를 따릅니다.
+4.5라는 점수가 표준점수라면, 이 점수는 매우 낮은 수치이며 대부분의 대학에서 합격 기준을 충족하기 어려울 것입니다. 하지만 추가모집이나 특정 전형에서는 기회가 있을 수 있습니다.
+추가적으로 확인해야 할 사항들은 다음과 같습니다:
+1. **정시 모집인원과 지원자 수**: 현재 모집인원에 미달한 경우 추가모집이 이루어질 가능성이 있습니다.
+2. **학과별 합격기준 점수**: 각 학과별로 정해진 최저합격 기준 점수가 있으므로, 해당 학과의 기준을 확인해야 합니다.
+3. **추가모집 시기**: 추가모집이 이루어지는 시기에 맞춰 지원해야 합니다.
+따라서, 가장 정확한 답변을 얻으려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 해당 대학의 입학 홈페이지에서 최신 정보를 확인하거나, 직접 입학관리팀에 문의하시면 더 구체적인 답변을 받을 수 있습니다.
+추가적으로, 지원자의 성적 외에도 학교생활기록부, 면접 결과 등 다양한 요소들이 고려될 수 있으므로, 전반적인 경쟁력을 평가받는 기회를 얻을 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3457014639048348</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)는 전형요소 반영비율을 살펴보면 실기/실적 위주전형으로 분류됩니다. 이 경우 학생부교과 성적이 30%와 출결이 12%, 그리고 실적(실제 실기시험 등)이 70%를 차지합니다.
+신소재공학과는 모집인원이 많고 경쟁률도 높은 편입니다. 예를 들어, 신소재공학과와 고분자나노공학과의 경우:
+- 모집인원: 56명
+- 지원인원: 81명
+- 경쟁률: 1.45
+이러한 정보만으로 정확한 등급을 예측하기는 어렵지만, 일반적으로 신소재공학과와 관련된 전공은 과학적 능력과 수학적 이해력이 요구되므로 다음과 같은 점수대를 목표로 해볼 수 있습니다:
+- 국어: 4등급 이상
+- 수학(미적분): 5등급 이상 (특히 미적분)
+- 영어: 3등급 이상
+이는 경쟁률과 모집인원을 고려한 추정치이며, 최종 합격 가능 등급은 지원자의 개인적인 성적과 전반적인 경쟁력을 포함하여 결정됩니다. 따라서 정확한 합격 가능성 평가는 지원자의 실적을 바탕으로 한 전문가의 상담이 필요할 수 있습니다.
+추가적으로, 동의대학교에서는 학생부교과성적이 8과목 중 석차등급 상위 12과목 중 4과목을 반영하며, 이 중 과학 관련 과목이 포함되어 있어 신소재공학과에 지원하는 학생들은 이러한 과목에서 높은 성적을 받는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.02516042442367437</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수와 최종 등급 간의 변동 가능성에 대해 고려해보겠습니다.
+1. **표준점수 변동 가능성**:
+   - 표준점수는 수능 성적을 일정한 분포로 변환한 점수입니다.
+   - 작년과 올해의 표준점수 변동은 여러 요인에 의해 발생할 수 있습니다 (예: 전체 지원자 수, 학생들의 성적 분포 등).
+   - 그러나 동일한 모집단위에서 큰 폭의 변동은 드물기 때문에, 작년과 올해의 표준점수가 1점 차이 나는 것은 가능하지만 매우 낮은 확률입니다.
+2. **최종 등급 변동 가능성**:
+   - 최종 등급은 모집단위별로 정해진 합격 기준 점수를 기반으로 합니다.
+   - 작년과 올해의 합격 기준 점수가 동일하거나 매우 유사한 경우, 표준점수가 1점 차이 나는 것에도 불구하고 최종 등급은 동일할 가능성이 높습니다.
+3. **모집인원 및 지원자 수**:
+   - 작년과 올해의 모집인원이나 지원자 수가 크게 달라진다면, 합격 기준 점수가 변동될 수 있습니다.
+   - 그러나 작년과 올해의 지원자 수가 유사하다면, 합격 기준 점수는 큰 변화를 보이지 않을 가능성이 높습니다.
+4. **전형별 특성**:
+   - 일반학생전형과 학생부종합전형 등 전형별로 합격 기준 점수가 다를 수 있습니다.
+   - 동의대학교의 경우, 각 모집단위에 따라 표준점수 변동이 있을 수 있으나, 전체적으로 큰 차이는 드물다고 볼 수 있습니다.
+결론적으로, 작년 신소재공학과 최종 평균 점수가 447점보다 약간 높았다면, 올해도 유사한 수준의 합격 기준 점수를 유지할 가능성이 높습니다. 그러나 표준점수가 1점 차이 나는 것에도 불구하고 최종 등급이 완전히 동일하지는 않을 수 있습니다.
+따라서, 작년과 올해의 합격 기준 점수가 매우 유사한 경우, 최종 등급도 유사할 가능성이 높습니다. 하지만 정확한 예측은 모집단위별로 실제 합격 기준 점수를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.01177203539144044</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급의 수능 점수가 정시 성적 산출 시 4.1~4.2 등급으로 평가된다면, 이는 동의대학교 신소재공학부(공과대학)의 일반학생전형에 충분히 경쟁력을 갖추고 있다고 볼 수 있습니다.
+신소재공학부의 모집인원과 지원 인원을 확인해보겠습니다:
+- **모집인원**: 56명
+- **지원 인원**: 81명
+- **경쟁률**: 약 1.45:1
+이 경쟁률은 상대적으로 낮아 보입니다. 그러나 신소재공학부는 수능 점수뿐만 아니라 탐구 영역 등급도 중요하게 평가하므로, 다음과 같은 요인들을 고려해야 합니다:
+1. **탐구 영역 등급**: 4개의 탐구 과목 중 최상위 3개 영역을 선택하여 평균 등급을 계산합니다.
+2. **국어, 수학, 영어 등급**: 이들 과목의 등급도 중요합니다.
+만약 다음과 같은 성적을 가지고 있다면, 경쟁력을 갖추고 있을 것입니다:
+- 국어: 4등급
+- 수학: 4등급
+- 영어: 3등급
+- 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개): 최상위 등급
+이러한 성적을 가지고 있다면, 신소재공학부에 지원하는 것은 가능합니다. 그러나 경쟁률이 낮다고 해서 반드시 합격할 수는 없습니다. 동의대학교의 입시 경향과 모집인원, 지원 인원 등을 고려하여 최선의 준비를 하는 것이 중요합니다.
+추가적으로, 동의대학교의 전형요소 반영비율을 확인해보세요:
+- **국어 (화법과작문 or 언어와매체)**: 25%
+- **수학 (확률과통계 or 미적분 or 기하)**: 25%
+- **영어**: 25%
+- **탐구 (사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목)**: 25%
+이러한 비율을 고려하여 자신의 성적과 경쟁력을 평가하면, 신소재공학부에 지원하는 것이 가능할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.231467341168017</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 수능 일반학생전형의 최초합격자 성적을 확인해보겠습니다:
+- 모집인원: 15명
+- 지원인원: 24명 
+- 경쟁률: 약 1.60대 1
+최초합격자의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함): 301.87점
+- 영어 등급: 4.13등급
+- 수능 4개 영역 등급: 4.00등급
+- 수능 4개 영역 (가산점 포함): 450.71점
+이러한 성적을 기준으로 보면, 인공지능학과는 상대적으로 경쟁률이 낮은 편입니다. 하지만 최고 점수와 등급을 가지고 있는 학생들이 많아서 높은 점수를 받는 것이 중요합니다.
+실제 수능 성적에 따라 합격 가능성을 판단하는 것은 어렵지만, 평균 이상의 성적이 필요할 것으로 보입니다. 특히 수학과 탐구 영역에서 높은 점수를 받는 것이 유리할 것 같습니다.
+추가적으로, 수능 외에도 면접 등 다른 요소도 고려되기 때문에, 전반적인 학업 능력과 적성 등을 잘 보여줄 수 있는 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.3940605682610591</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 您指的是哪一年的招生情况？
+2. 这个成绩是基于哪个科目组合（例如国语、数学、英语等）？
+3. 具体是哪个专业或学院？
+不过，根据您提供的信息，我可以给出一个大致的回答。
+从表格中可以看到，大部分专业的4个科目标准转换分数总和平均值在390-450分之间。而您的成绩为5.27，这明显高于大多数专业的平均分。
+具体来说：
+- 一些热门专业如法律学、行政学等的平均分为430多分。
+- 部分较冷门的专业如社会福利学、艺术设计学等的平均分为410-420分左右。
+- 而您的成绩为5.27，这远高于这些专业的平均分。
+因此，从这个角度来看，您的成绩应该有很大的机会被录取。不过具体能否录取还需要考虑其他因素，如专业名额限制、面试表现等。
+建议您查看具体的招生简章和各专业的详细要求，以获得更准确的信息。如果有特定的专业或学院想要申请，最好直接咨询学校获取最准确的答案。</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.01783572531117177</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 중등교육 기간 내에서 학생들의 성적이 상당히 높은 수준을 보여줍니다. 동의대학교 소프트웨어공학부에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **성적 평균**: 4.2는 좋은 성적입니다. 이 정도 성적은 대부분의 모집단위에서 경쟁력을 갖추고 있습니다.
+2. **교과 반영 비율**: 소프트웨어공학부는 교과 성적이 70%를 차지합니다. 따라서, 고등학교에서의 성적이 중요합니다.
+3. **반영 과목**: 전 모집단위에서는 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목이 반영됩니다. 이 중에서 성적이 높은 과목들을 선택하여 지원하면 좋습니다.
+4. **진로선택과목**: 소프트웨어공학부에서는 진로선택과목을 반영하지 않습니다. 따라서, 이 부분은 걱정할 필요가 없습니다.
+5. **면접 및 실기**: 일부 모집단위에서는 면접이나 실기가 포함되므로, 준비를 철저히 해야 합니다.
+6. **추천서 및 자기소개서**: 개인적인 경험과 열정을 잘 표현한 추천서와 자기소개서는 중요합니다.
+7. **출결 및 기타 성적**: 출결 등록금 납부 기간 내에 완료해야 하므로, 이 부분도 신경 써야 합니다.
+이러한 요인들을 종합적으로 고려하면 4.2의 성적이 좋은데다 소프트웨어공학부는 교과 성적이 높은 곳이라면 충분히 지원 가능성이 있습니다. 그러나 경쟁률이 매우 높을 수 있으므로, 다른 모집단위도 함께 검토해보는 것이 좋습니다.
+추가적으로, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하여 최신 정보와 자세한 조언을 얻는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.02204782840118235</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看以下信息：
+1. 化学环境工程系（化学工程、环境工程、应用化学）的最低录取分数线。
+2. 您的成绩是否满足该专业的其他要求。
+根据您提供的成绩3.92（假设是平均分或标准化分数），以及化学环境工程系的具体录取标准，我们可以进行判断。但是，具体信息没有直接给出，我们需要参考以下内容：
+1. **化学环境工程系的最低录取分数线**：
+   - 从之前的表格中可以看到，化学环境工程系的一般学生招生计划中的国语、数学和英语等科目的平均分要求。
+2. **成绩分析**：
+   - 国语 + 数学 + 探讨（2个科目）标准化分数总和：3.92
+   - 英语等级：假设为某个等级，需要具体查看该专业的最低英语等级要求。
+   - 数能4个科目等级：假设为某个等级组合，也需要具体查看该专业的最低等级要求。
+根据您提供的信息，如果化学环境工程系的最低录取分数线是3.90或更低，并且您的英语和其它科目的成绩也满足要求，那么理论上是有可能被录取的。但是为了确保准确无误，请参考具体的招生简章或联系学校获取详细信息。
+建议：
+- 查看化学环境工程系的具体录取标准。
+- 确认您的英语等级是否符合该专业的最低要求。
+- 联系东义大学招生办公室确认最终结果。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.01836714365369192</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>4.25라는 점수는 대략적인 평균을 의미하는 것 같습니다. 하지만 정확한 수능 성적을 확인하기 위해서는 국어, 수학(미적분 또는 기하), 영어 등급 및 탐구 과목의 표준점수를 포함한 전체 성적이 필요합니다.
+동의대학교 화학환경공학부는 일반학생전형에서 수능 성적을 다음과 같이 반영합니다:
+1. 국어 (화법과작문 또는 언어와매체) 25%
+2. 수학 (미적분 또는 기하) 25%
+3. 영어 25%
+4. 탐구 (사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+수능 성적이 다음과 같다면, 일반학생전형으로 지원 가능할 수 있습니다:
+- 국어: 104점 이상
+- 수학(미적분 또는 기하): 108점 이상
+- 영어: 3등급 이상 (대략 123점)
+- 탐구: 두 과목 모두 5등급 이상
+만약 위의 조건을 충족한다면, 정시 성적이 4.25인 경우 일반학생전형으로 지원 가능할 것입니다.
+하지만, 정확한 판단을 위해서는 다음과 같은 절차를 따르세요:
+1. **수능 성적 확인**: 수능 성적을 확인하고 국어, 수학(미적분 또는 기하), 영어 등급 및 탐구 과목의 표준점수를 구합니다.
+2. **성적 산출**: 위에서 언급한 방법으로 성적을 산출하여 평균 점수를 계산합니다.
+3. **모집단위별 기준 확인**: 해당 모집단위의 최저합격선을 확인합니다.
+만약 수능 성적이 충족되지 않는다면, 다른 전형(예: 실기/실적 위주 전형)으로 지원해보는 것도 고려해볼 만합니다. 
+더 자세한 정보를 얻으시려면 동의대학교 입학처 웹사이트나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.07978804337208246</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 영화학과의 경우 실기와 면접이 중요한 역할을 하므로 단순히 수능점수로 합격 여부를 판단하기는 어렵습니다.
+영화학과의 전형요소 반영비율을 확인해보겠습니다:
+- **실기/실적(경기실적우수자전형):** {학생부교과(출결포함)30%+서류(실적)70%}
+- **학생부종합:** 서류 60%, 면접 40%
+따라서, 수능 점수가 4.2라면 학생부 교과성적이 높아야 합니다. 특히 실기와 면접에서 좋은 평가를 받는 것이 중요합니다.
+**추천 사항:**
+1. **학생부 교과성적:** 국어, 영어 등 주요 과목의 성적이 높은지 확인하세요.
+2. **실기 및 면접 준비:** 실기를 잘 보여줄 수 있는 작품이나 활동 경험이 있다면 이를 강조해야 합니다. 면접에서는 지원 동기와 학업 계획, 전공적합성 등을 잘 설명할 수 있어야 합니다.
+**결론:**
+수능 점수가 4.2라면 합격 가능성은 있지만, 실기와 면접에서 좋은 평가를 받는 것이 중요합니다. 영화학과의 특성을 고려하여 준비를 철저히 해보세요.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1712024807322683</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文翻译：
+```
+면접절차 / ①대기실 입실 ⇨ ②신분 확인 ⇨ ③고사장 앞 이동 ⇨ ④고사장 입실 ⇨ ⑤지원동기 및 학업계획 발표 ⇨ ⑥학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 ⇨ ⑦기타 질의응답(제출서류 진위 여부 등) ⇨ ⑧퇴실 /
+``` 
+具体步骤如下：
+1. ①候考室入室
+2. ②身份确认
+3. ③前往考场
+4. ④进入考场
+5. ⑤介绍个人志愿和学业计划
+6. ⑥回答与学业能力及专业适应性相关的一般问题并进行问答
+7. ⑦其他质询（提交文件的真实性等）
+8. ⑧退场
+希望这对你有帮助！如果有任何进一步的问题，请告诉我。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.3338521185349492</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.3482945275501976</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.2143550611114037</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1666905419697425</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.2813247943308006</v>
+      <c r="D305" t="n">
+        <v>0.2431133768771145</v>
       </c>
     </row>
   </sheetData>
